--- a/playcrab/好友测试用例.xlsx
+++ b/playcrab/好友测试用例.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26070" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26070" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="443">
   <si>
     <t>ID</t>
   </si>
@@ -2085,6 +2085,14 @@
   </si>
   <si>
     <t>功能逻辑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ/微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2363,7 +2371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2424,19 +2432,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2445,9 +2444,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2455,21 +2451,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2481,33 +2504,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2517,17 +2513,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2538,13 +2540,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2556,7 +2552,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2568,32 +2567,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3406,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3442,21 +3423,21 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -3473,8 +3454,8 @@
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="8" t="s">
         <v>365</v>
       </c>
@@ -3489,8 +3470,8 @@
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="8" t="s">
         <v>366</v>
       </c>
@@ -3505,7 +3486,7 @@
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
@@ -3520,24 +3501,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -3552,9 +3533,9 @@
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="53"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
@@ -3566,8 +3547,8 @@
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -3582,8 +3563,8 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
@@ -3596,8 +3577,8 @@
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="12" t="s">
         <v>26</v>
       </c>
@@ -3610,9 +3591,9 @@
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="52" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -3626,9 +3607,9 @@
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="14" t="s">
         <v>32</v>
       </c>
@@ -3640,8 +3621,8 @@
       <c r="A15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
@@ -3656,8 +3637,8 @@
       <c r="A16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="11" t="s">
         <v>37</v>
       </c>
@@ -3672,14 +3653,14 @@
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="9" t="s">
         <v>9</v>
       </c>
@@ -3688,10 +3669,10 @@
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="9" t="s">
         <v>9</v>
       </c>
@@ -3700,10 +3681,10 @@
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="40"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="9" t="s">
         <v>9</v>
       </c>
@@ -3712,10 +3693,10 @@
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="40"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="9" t="s">
         <v>9</v>
       </c>
@@ -3724,10 +3705,10 @@
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="9" t="s">
         <v>9</v>
       </c>
@@ -3736,10 +3717,10 @@
       <c r="A22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="9" t="s">
         <v>9</v>
       </c>
@@ -3748,10 +3729,10 @@
       <c r="A23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="40"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="30"/>
       <c r="F23" s="9" t="s">
         <v>9</v>
       </c>
@@ -3760,10 +3741,10 @@
       <c r="A24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="30"/>
       <c r="F24" s="9" t="s">
         <v>9</v>
       </c>
@@ -3772,10 +3753,10 @@
       <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="9" t="s">
         <v>9</v>
       </c>
@@ -3784,10 +3765,10 @@
       <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="9" t="s">
         <v>9</v>
       </c>
@@ -3796,10 +3777,10 @@
       <c r="A27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="40"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="9" t="s">
         <v>9</v>
       </c>
@@ -3808,10 +3789,10 @@
       <c r="A28" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="40"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="30"/>
       <c r="F28" s="9" t="s">
         <v>9</v>
       </c>
@@ -3820,10 +3801,10 @@
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="40"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="9" t="s">
         <v>9</v>
       </c>
@@ -3832,8 +3813,8 @@
       <c r="A30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="8" t="s">
         <v>55</v>
       </c>
@@ -3848,8 +3829,8 @@
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="32"/>
       <c r="D31" s="8" t="s">
         <v>29</v>
       </c>
@@ -3864,8 +3845,8 @@
       <c r="A32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="11" t="s">
         <v>34</v>
       </c>
@@ -3880,8 +3861,8 @@
       <c r="A33" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="11" t="s">
         <v>37</v>
       </c>
@@ -3896,8 +3877,8 @@
       <c r="A34" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="30"/>
+      <c r="C34" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -3912,8 +3893,8 @@
       <c r="A35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="11" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +3907,8 @@
       <c r="A36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11" t="s">
         <v>68</v>
       </c>
@@ -3942,8 +3923,8 @@
       <c r="A37" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="8" t="s">
         <v>29</v>
       </c>
@@ -3958,8 +3939,8 @@
       <c r="A38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="11" t="s">
         <v>34</v>
       </c>
@@ -3974,8 +3955,8 @@
       <c r="A39" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="11" t="s">
         <v>37</v>
       </c>
@@ -3990,8 +3971,8 @@
       <c r="A40" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="39" t="s">
+      <c r="B40" s="30"/>
+      <c r="C40" s="32" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -4006,8 +3987,8 @@
       <c r="A41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="8" t="s">
         <v>79</v>
       </c>
@@ -4020,8 +4001,8 @@
       <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="11" t="s">
         <v>81</v>
       </c>
@@ -4036,9 +4017,9 @@
       <c r="A43" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="43" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="36" t="s">
         <v>29</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -4052,9 +4033,9 @@
       <c r="A44" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="40"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="43"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="11" t="s">
         <v>86</v>
       </c>
@@ -4066,8 +4047,8 @@
       <c r="A45" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="11" t="s">
         <v>34</v>
       </c>
@@ -4082,8 +4063,8 @@
       <c r="A46" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32"/>
       <c r="D46" s="11" t="s">
         <v>37</v>
       </c>
@@ -4095,21 +4076,21 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="41" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -4124,8 +4105,8 @@
       <c r="A49" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="11" t="s">
         <v>97</v>
       </c>
@@ -4138,8 +4119,8 @@
       <c r="A50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="48" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="44" t="s">
         <v>100</v>
       </c>
       <c r="D50" s="16" t="s">
@@ -4154,8 +4135,8 @@
       <c r="A51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="37"/>
-      <c r="C51" s="48"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="16" t="s">
         <v>104</v>
       </c>
@@ -4168,8 +4149,8 @@
       <c r="A52" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="37"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="16" t="s">
         <v>107</v>
       </c>
@@ -4182,8 +4163,8 @@
       <c r="A53" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="16" t="s">
         <v>110</v>
       </c>
@@ -4196,9 +4177,9 @@
       <c r="A54" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49" t="s">
+      <c r="B54" s="42"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="45" t="s">
         <v>113</v>
       </c>
       <c r="E54" s="16" t="s">
@@ -4210,9 +4191,9 @@
       <c r="A55" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="37"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="50"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="16" t="s">
         <v>108</v>
       </c>
@@ -4222,8 +4203,8 @@
       <c r="A56" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="37"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="12" t="s">
         <v>117</v>
       </c>
@@ -4236,8 +4217,8 @@
       <c r="A57" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="12" t="s">
         <v>120</v>
       </c>
@@ -4250,8 +4231,8 @@
       <c r="A58" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="17" t="s">
         <v>123</v>
       </c>
@@ -4264,7 +4245,7 @@
       <c r="A59" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="7" t="s">
         <v>125</v>
       </c>
@@ -4280,10 +4261,10 @@
       <c r="A60" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="39" t="s">
+      <c r="C60" s="32" t="s">
         <v>130</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -4298,8 +4279,8 @@
       <c r="A61" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="11" t="s">
         <v>132</v>
       </c>
@@ -4312,11 +4293,11 @@
       <c r="A62" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39" t="s">
+      <c r="B62" s="32"/>
+      <c r="C62" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="37" t="s">
         <v>136</v>
       </c>
       <c r="E62" s="8" t="s">
@@ -4330,9 +4311,9 @@
       <c r="A63" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="42"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="8" t="s">
         <v>139</v>
       </c>
@@ -4344,8 +4325,8 @@
       <c r="A64" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
       <c r="D64" s="11" t="s">
         <v>141</v>
       </c>
@@ -4360,8 +4341,8 @@
       <c r="A65" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
       <c r="D65" s="11" t="s">
         <v>144</v>
       </c>
@@ -4376,8 +4357,8 @@
       <c r="A66" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
       <c r="D66" s="11" t="s">
         <v>147</v>
       </c>
@@ -4392,8 +4373,8 @@
       <c r="A67" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="11" t="s">
         <v>150</v>
       </c>
@@ -4406,8 +4387,8 @@
       <c r="A68" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
       <c r="D68" s="11" t="s">
         <v>152</v>
       </c>
@@ -4422,8 +4403,8 @@
       <c r="A69" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
       <c r="D69" s="11" t="s">
         <v>155</v>
       </c>
@@ -4438,8 +4419,8 @@
       <c r="A70" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
       <c r="D70" s="11" t="s">
         <v>157</v>
       </c>
@@ -4454,8 +4435,8 @@
       <c r="A71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
       <c r="D71" s="11" t="s">
         <v>160</v>
       </c>
@@ -4470,8 +4451,8 @@
       <c r="A72" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
       <c r="D72" s="11" t="s">
         <v>163</v>
       </c>
@@ -4486,8 +4467,8 @@
       <c r="A73" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
       <c r="D73" s="11" t="s">
         <v>166</v>
       </c>
@@ -4502,9 +4483,9 @@
       <c r="A74" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="43" t="s">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="36" t="s">
         <v>169</v>
       </c>
       <c r="E74" s="8" t="s">
@@ -4518,9 +4499,9 @@
       <c r="A75" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="44"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="48"/>
       <c r="E75" s="8" t="s">
         <v>172</v>
       </c>
@@ -4532,8 +4513,8 @@
       <c r="A76" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
       <c r="D76" s="8" t="s">
         <v>174</v>
       </c>
@@ -4548,8 +4529,8 @@
       <c r="A77" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
       <c r="D77" s="8" t="s">
         <v>177</v>
       </c>
@@ -4564,8 +4545,8 @@
       <c r="A78" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
       <c r="D78" s="11" t="s">
         <v>180</v>
       </c>
@@ -4580,8 +4561,8 @@
       <c r="A79" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
       <c r="D79" s="11" t="s">
         <v>182</v>
       </c>
@@ -4596,8 +4577,8 @@
       <c r="A80" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
       <c r="D80" s="11" t="s">
         <v>185</v>
       </c>
@@ -4612,8 +4593,8 @@
       <c r="A81" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
       <c r="D81" s="11" t="s">
         <v>188</v>
       </c>
@@ -4628,8 +4609,8 @@
       <c r="A82" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39" t="s">
+      <c r="B82" s="32"/>
+      <c r="C82" s="32" t="s">
         <v>125</v>
       </c>
       <c r="D82" s="11" t="s">
@@ -4646,8 +4627,8 @@
       <c r="A83" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
       <c r="D83" s="11" t="s">
         <v>126</v>
       </c>
@@ -4662,8 +4643,8 @@
       <c r="A84" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
       <c r="D84" s="11" t="s">
         <v>195</v>
       </c>
@@ -4678,8 +4659,8 @@
       <c r="A85" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
       <c r="D85" s="11" t="s">
         <v>198</v>
       </c>
@@ -4694,8 +4675,8 @@
       <c r="A86" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39" t="s">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32" t="s">
         <v>201</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -4712,8 +4693,8 @@
       <c r="A87" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
       <c r="D87" s="11" t="s">
         <v>205</v>
       </c>
@@ -4728,8 +4709,8 @@
       <c r="A88" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
       <c r="D88" s="11" t="s">
         <v>207</v>
       </c>
@@ -4744,8 +4725,8 @@
       <c r="A89" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
       <c r="D89" s="11" t="s">
         <v>210</v>
       </c>
@@ -4760,8 +4741,8 @@
       <c r="A90" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
       <c r="D90" s="11" t="s">
         <v>213</v>
       </c>
@@ -4776,8 +4757,8 @@
       <c r="A91" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
       <c r="D91" s="11" t="s">
         <v>216</v>
       </c>
@@ -4792,8 +4773,8 @@
       <c r="A92" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
       <c r="D92" s="11" t="s">
         <v>219</v>
       </c>
@@ -4808,8 +4789,8 @@
       <c r="A93" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39" t="s">
+      <c r="B93" s="32"/>
+      <c r="C93" s="32" t="s">
         <v>222</v>
       </c>
       <c r="D93" s="11" t="s">
@@ -4826,8 +4807,8 @@
       <c r="A94" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="11" t="s">
         <v>226</v>
       </c>
@@ -4842,10 +4823,10 @@
       <c r="A95" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="30" t="s">
         <v>230</v>
       </c>
       <c r="D95" s="11" t="s">
@@ -4862,8 +4843,8 @@
       <c r="A96" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B96" s="39"/>
-      <c r="C96" s="40"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="30"/>
       <c r="D96" s="11" t="s">
         <v>234</v>
       </c>
@@ -4878,8 +4859,8 @@
       <c r="A97" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B97" s="39"/>
-      <c r="C97" s="40"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="30"/>
       <c r="D97" s="9" t="s">
         <v>237</v>
       </c>
@@ -4894,8 +4875,8 @@
       <c r="A98" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B98" s="39"/>
-      <c r="C98" s="40"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="30"/>
       <c r="D98" s="11" t="s">
         <v>240</v>
       </c>
@@ -4910,8 +4891,8 @@
       <c r="A99" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B99" s="39"/>
-      <c r="C99" s="40"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="30"/>
       <c r="D99" s="11" t="s">
         <v>242</v>
       </c>
@@ -4926,8 +4907,8 @@
       <c r="A100" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B100" s="39"/>
-      <c r="C100" s="40"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="30"/>
       <c r="D100" s="9" t="s">
         <v>245</v>
       </c>
@@ -4942,8 +4923,8 @@
       <c r="A101" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B101" s="39"/>
-      <c r="C101" s="40"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="9" t="s">
         <v>248</v>
       </c>
@@ -4958,8 +4939,8 @@
       <c r="A102" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="40"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="9" t="s">
         <v>251</v>
       </c>
@@ -4974,8 +4955,8 @@
       <c r="A103" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B103" s="39"/>
-      <c r="C103" s="40"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="30"/>
       <c r="D103" s="11" t="s">
         <v>254</v>
       </c>
@@ -4990,8 +4971,8 @@
       <c r="A104" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="30"/>
       <c r="D104" s="11" t="s">
         <v>257</v>
       </c>
@@ -5006,10 +4987,10 @@
       <c r="A105" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="C105" s="39" t="s">
+      <c r="C105" s="32" t="s">
         <v>261</v>
       </c>
       <c r="D105" s="11" t="s">
@@ -5026,8 +5007,8 @@
       <c r="A106" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
       <c r="D106" s="11" t="s">
         <v>265</v>
       </c>
@@ -5042,8 +5023,8 @@
       <c r="A107" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
       <c r="D107" s="11" t="s">
         <v>268</v>
       </c>
@@ -5058,8 +5039,8 @@
       <c r="A108" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
       <c r="D108" s="11" t="s">
         <v>270</v>
       </c>
@@ -5074,8 +5055,8 @@
       <c r="A109" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
       <c r="D109" s="11" t="s">
         <v>273</v>
       </c>
@@ -5090,8 +5071,8 @@
       <c r="A110" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
       <c r="D110" s="11" t="s">
         <v>276</v>
       </c>
@@ -5106,8 +5087,8 @@
       <c r="A111" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
       <c r="D111" s="11" t="s">
         <v>279</v>
       </c>
@@ -5122,8 +5103,8 @@
       <c r="A112" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
       <c r="D112" s="11" t="s">
         <v>281</v>
       </c>
@@ -5138,8 +5119,8 @@
       <c r="A113" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
       <c r="D113" s="11" t="s">
         <v>284</v>
       </c>
@@ -5154,10 +5135,10 @@
       <c r="A114" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="39" t="s">
+      <c r="B114" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="C114" s="39" t="s">
+      <c r="C114" s="32" t="s">
         <v>288</v>
       </c>
       <c r="D114" s="11" t="s">
@@ -5174,8 +5155,8 @@
       <c r="A115" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
       <c r="D115" s="11" t="s">
         <v>292</v>
       </c>
@@ -5190,8 +5171,8 @@
       <c r="A116" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
       <c r="D116" s="11" t="s">
         <v>295</v>
       </c>
@@ -5206,8 +5187,8 @@
       <c r="A117" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="32"/>
       <c r="D117" s="11" t="s">
         <v>298</v>
       </c>
@@ -5222,8 +5203,8 @@
       <c r="A118" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="32"/>
       <c r="D118" s="11" t="s">
         <v>301</v>
       </c>
@@ -5238,8 +5219,8 @@
       <c r="A119" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
       <c r="D119" s="11" t="s">
         <v>303</v>
       </c>
@@ -5254,8 +5235,8 @@
       <c r="A120" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
       <c r="D120" s="11" t="s">
         <v>305</v>
       </c>
@@ -5270,8 +5251,8 @@
       <c r="A121" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
       <c r="D121" s="11" t="s">
         <v>307</v>
       </c>
@@ -5286,8 +5267,8 @@
       <c r="A122" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
       <c r="D122" s="11" t="s">
         <v>310</v>
       </c>
@@ -5302,8 +5283,8 @@
       <c r="A123" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
       <c r="D123" s="11" t="s">
         <v>312</v>
       </c>
@@ -5318,8 +5299,8 @@
       <c r="A124" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
       <c r="D124" s="11" t="s">
         <v>315</v>
       </c>
@@ -5334,8 +5315,8 @@
       <c r="A125" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
       <c r="D125" s="11" t="s">
         <v>318</v>
       </c>
@@ -5350,8 +5331,8 @@
       <c r="A126" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
       <c r="D126" s="11" t="s">
         <v>321</v>
       </c>
@@ -5366,8 +5347,8 @@
       <c r="A127" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
       <c r="D127" s="11" t="s">
         <v>324</v>
       </c>
@@ -5382,8 +5363,8 @@
       <c r="A128" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39" t="s">
+      <c r="B128" s="32"/>
+      <c r="C128" s="32" t="s">
         <v>327</v>
       </c>
       <c r="D128" s="11" t="s">
@@ -5400,8 +5381,8 @@
       <c r="A129" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
       <c r="D129" s="11" t="s">
         <v>331</v>
       </c>
@@ -5416,8 +5397,8 @@
       <c r="A130" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
       <c r="D130" s="11" t="s">
         <v>334</v>
       </c>
@@ -5432,8 +5413,8 @@
       <c r="A131" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
       <c r="D131" s="11" t="s">
         <v>337</v>
       </c>
@@ -5448,8 +5429,8 @@
       <c r="A132" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
       <c r="D132" s="11" t="s">
         <v>339</v>
       </c>
@@ -5461,18 +5442,18 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="35"/>
-      <c r="B133" s="35"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
+      <c r="A133" s="31"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="31"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
     </row>
     <row r="134" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B134" s="36" t="s">
+      <c r="B134" s="41" t="s">
         <v>342</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -5492,7 +5473,7 @@
       <c r="A135" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B135" s="37"/>
+      <c r="B135" s="42"/>
       <c r="C135" s="7" t="s">
         <v>347</v>
       </c>
@@ -5510,7 +5491,7 @@
       <c r="A136" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B136" s="37"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="7" t="s">
         <v>351</v>
       </c>
@@ -5528,7 +5509,7 @@
       <c r="A137" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B137" s="37"/>
+      <c r="B137" s="42"/>
       <c r="C137" s="7" t="s">
         <v>354</v>
       </c>
@@ -5546,7 +5527,7 @@
       <c r="A138" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B138" s="37"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="7" t="s">
         <v>357</v>
       </c>
@@ -5564,7 +5545,7 @@
       <c r="A139" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="38"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="7" t="s">
         <v>360</v>
       </c>
@@ -5580,27 +5561,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:B46"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C17:C33"/>
-    <mergeCell ref="D17:D29"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="E17:E29"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="B48:B59"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D54:D55"/>
     <mergeCell ref="A133:F133"/>
     <mergeCell ref="B134:B139"/>
     <mergeCell ref="C3:C5"/>
@@ -5617,6 +5577,27 @@
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D74:D75"/>
     <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="E17:E29"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C40:C46"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="B48:B59"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:B46"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C33"/>
+    <mergeCell ref="D17:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5626,1704 +5607,1840 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:D81"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.375" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="8" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="24" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="26" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-    </row>
-    <row r="3" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+    <row r="2" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="51" t="s">
         <v>372</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="G3" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="30" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="G5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="25" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="G6" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="50" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="G8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="B11" s="54"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="G12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="28"/>
-    </row>
-    <row r="14" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="G13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="20" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
+      <c r="F14" s="60"/>
+      <c r="G14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="20" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
+      <c r="F15" s="60"/>
+      <c r="G15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="20" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="F16" s="60"/>
+      <c r="G16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="28"/>
-    </row>
-    <row r="18" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
+      <c r="F17" s="60"/>
+      <c r="G17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="20" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="28"/>
-    </row>
-    <row r="20" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
+      <c r="F19" s="60"/>
+      <c r="G19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="28"/>
-    </row>
-    <row r="21" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
+      <c r="F20" s="60"/>
+      <c r="G20" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="F22" s="70"/>
-      <c r="G22" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="F22" s="60"/>
+      <c r="G22" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="54"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="F23" s="70"/>
-      <c r="G23" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="F23" s="60"/>
+      <c r="G23" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="F24" s="60"/>
+      <c r="G24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="F25" s="60"/>
+      <c r="G25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="F26" s="60"/>
+      <c r="G26" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
+      <c r="F27" s="60"/>
+      <c r="G27" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="27" t="s">
         <v>408</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
+      <c r="F28" s="60"/>
+      <c r="G28" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="60" t="s">
         <v>376</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="G29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="F30" s="60"/>
+      <c r="G30" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="20" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24" t="s">
+      <c r="F31" s="60"/>
+      <c r="G31" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="20" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="s">
+      <c r="F32" s="60"/>
+      <c r="G32" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="20" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="F33" s="70"/>
-      <c r="G33" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" s="28"/>
-    </row>
-    <row r="34" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="F33" s="60"/>
+      <c r="G33" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+      <c r="F35" s="60"/>
+      <c r="G35" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="73" t="s">
+      <c r="B36" s="54"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="F36" s="70"/>
-      <c r="G36" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+      <c r="F36" s="60"/>
+      <c r="G36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="74" t="s">
+      <c r="B37" s="54"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="28"/>
-    </row>
-    <row r="38" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
+      <c r="F37" s="60"/>
+      <c r="G37" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="20" t="s">
+      <c r="B38" s="54"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="28"/>
-    </row>
-    <row r="39" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24" t="s">
+      <c r="F38" s="60"/>
+      <c r="G38" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="20" t="s">
+      <c r="B39" s="54"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="28"/>
-    </row>
-    <row r="40" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
+      <c r="F39" s="60"/>
+      <c r="G39" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="54"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24" t="s">
+      <c r="F40" s="60"/>
+      <c r="G40" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="20" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="28"/>
-    </row>
-    <row r="42" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="24" t="s">
+      <c r="F41" s="60"/>
+      <c r="G41" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="20" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="28"/>
-    </row>
-    <row r="43" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+      <c r="F42" s="60"/>
+      <c r="G42" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="20" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="28"/>
-    </row>
-    <row r="44" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="F43" s="60"/>
+      <c r="G43" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="20" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="28"/>
-    </row>
-    <row r="45" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="F44" s="60"/>
+      <c r="G44" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="B45" s="56"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="20" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="28"/>
-    </row>
-    <row r="46" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24" t="s">
+      <c r="F45" s="60"/>
+      <c r="G45" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="20" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="28"/>
-    </row>
-    <row r="47" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24" t="s">
+      <c r="F46" s="51"/>
+      <c r="G46" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="58" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="28"/>
-    </row>
-    <row r="48" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24" t="s">
+      <c r="F47" s="51"/>
+      <c r="G47" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="24"/>
+    </row>
+    <row r="48" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="56"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="20" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="28"/>
-    </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="F48" s="51"/>
+      <c r="G48" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="24"/>
+    </row>
+    <row r="49" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="20" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24" t="s">
+      <c r="F49" s="51"/>
+      <c r="G49" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="24"/>
+    </row>
+    <row r="50" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="20" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="28"/>
-    </row>
-    <row r="51" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="24" t="s">
+      <c r="F50" s="51"/>
+      <c r="G50" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="24"/>
+    </row>
+    <row r="51" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="20" t="s">
+      <c r="B51" s="54"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="28"/>
-    </row>
-    <row r="52" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24" t="s">
+      <c r="F51" s="51"/>
+      <c r="G51" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="24"/>
+    </row>
+    <row r="52" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="20" t="s">
+      <c r="B52" s="54"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="28"/>
-    </row>
-    <row r="53" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="F52" s="51"/>
+      <c r="G52" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="24"/>
+    </row>
+    <row r="53" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="20" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="28"/>
-    </row>
-    <row r="54" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="F53" s="51"/>
+      <c r="G53" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="74" t="s">
+      <c r="B54" s="54"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="28"/>
-    </row>
-    <row r="55" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+      <c r="F54" s="51"/>
+      <c r="G54" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="24"/>
+    </row>
+    <row r="55" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="28"/>
-    </row>
-    <row r="56" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24" t="s">
+      <c r="F55" s="51"/>
+      <c r="G55" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="24"/>
+    </row>
+    <row r="56" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="27" t="s">
         <v>405</v>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="28"/>
-    </row>
-    <row r="57" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24" t="s">
+      <c r="F56" s="51"/>
+      <c r="G56" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="24"/>
+    </row>
+    <row r="57" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="75" t="s">
+      <c r="B57" s="54"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="28"/>
-    </row>
-    <row r="58" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24" t="s">
+      <c r="F57" s="51"/>
+      <c r="G57" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="24"/>
+    </row>
+    <row r="58" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="75" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="28"/>
-    </row>
-    <row r="59" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24" t="s">
+      <c r="F58" s="51"/>
+      <c r="G58" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="24"/>
+    </row>
+    <row r="59" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="75" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="67" t="s">
         <v>415</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="28"/>
-    </row>
-    <row r="60" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24" t="s">
+      <c r="F59" s="51"/>
+      <c r="G59" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="24"/>
+    </row>
+    <row r="60" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="75" t="s">
+      <c r="B60" s="54"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="F60" s="60"/>
-      <c r="G60" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H60" s="28"/>
-    </row>
-    <row r="61" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="24" t="s">
+      <c r="F60" s="51"/>
+      <c r="G60" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="24"/>
+    </row>
+    <row r="61" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="B61" s="56"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="75" t="s">
+      <c r="B61" s="54"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="67" t="s">
         <v>416</v>
       </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="28"/>
-    </row>
-    <row r="62" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="24" t="s">
+      <c r="F61" s="51"/>
+      <c r="G61" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="55" t="s">
+      <c r="B62" s="54"/>
+      <c r="C62" s="53" t="s">
         <v>421</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="D62" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="E62" s="75" t="s">
+      <c r="E62" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="F62" s="61"/>
-      <c r="G62" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="24" t="s">
+      <c r="F62" s="57"/>
+      <c r="G62" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="24"/>
+    </row>
+    <row r="63" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="75" t="s">
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="F63" s="62"/>
-      <c r="G63" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="28"/>
-    </row>
-    <row r="64" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="24" t="s">
+      <c r="F63" s="58"/>
+      <c r="G63" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="24"/>
+    </row>
+    <row r="64" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="75" t="s">
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
+      <c r="F64" s="58"/>
+      <c r="G64" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="24"/>
+    </row>
+    <row r="65" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="75" t="s">
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="F65" s="62"/>
-      <c r="G65" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="28"/>
-    </row>
-    <row r="66" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
+      <c r="F65" s="58"/>
+      <c r="G65" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="24"/>
+    </row>
+    <row r="66" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="75" t="s">
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
+      <c r="F66" s="58"/>
+      <c r="G66" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="24"/>
+    </row>
+    <row r="67" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="75" t="s">
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="F67" s="62"/>
-      <c r="G67" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24" t="s">
+      <c r="F67" s="58"/>
+      <c r="G67" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="24"/>
+    </row>
+    <row r="68" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="75" t="s">
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="28"/>
-    </row>
-    <row r="69" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="24" t="s">
+      <c r="F68" s="58"/>
+      <c r="G68" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="24"/>
+    </row>
+    <row r="69" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="75" t="s">
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="F69" s="63"/>
-      <c r="G69" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="28"/>
-    </row>
-    <row r="70" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
+      <c r="F69" s="59"/>
+      <c r="G69" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="24"/>
+    </row>
+    <row r="70" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="58" t="s">
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="E70" s="75" t="s">
+      <c r="E70" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="F70" s="61"/>
-      <c r="G70" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="24" t="s">
+      <c r="F70" s="57"/>
+      <c r="G70" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="24"/>
+    </row>
+    <row r="71" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="75" t="s">
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="F71" s="62"/>
-      <c r="G71" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24" t="s">
+      <c r="F71" s="58"/>
+      <c r="G71" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="24"/>
+    </row>
+    <row r="72" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="75" t="s">
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="F72" s="62"/>
-      <c r="G72" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="28"/>
-    </row>
-    <row r="73" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="24" t="s">
+      <c r="F72" s="58"/>
+      <c r="G72" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="24"/>
+    </row>
+    <row r="73" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="75" t="s">
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="F73" s="62"/>
-      <c r="G73" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" s="28"/>
-    </row>
-    <row r="74" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="24" t="s">
+      <c r="F73" s="58"/>
+      <c r="G73" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="24"/>
+    </row>
+    <row r="74" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="75" t="s">
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" s="28"/>
-    </row>
-    <row r="75" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="24" t="s">
+      <c r="F74" s="58"/>
+      <c r="G74" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="75" t="s">
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="24" t="s">
+      <c r="F75" s="58"/>
+      <c r="G75" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="24"/>
+    </row>
+    <row r="76" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="75" t="s">
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="67" t="s">
         <v>433</v>
       </c>
-      <c r="F76" s="62"/>
-      <c r="G76" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H76" s="28"/>
-    </row>
-    <row r="77" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="24" t="s">
+      <c r="F76" s="58"/>
+      <c r="G76" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="24"/>
+    </row>
+    <row r="77" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="75" t="s">
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="28"/>
-    </row>
-    <row r="78" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24" t="s">
+      <c r="F77" s="58"/>
+      <c r="G77" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="24"/>
+    </row>
+    <row r="78" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="75" t="s">
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="F78" s="62"/>
-      <c r="G78" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="28"/>
-    </row>
-    <row r="79" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="24" t="s">
+      <c r="F78" s="58"/>
+      <c r="G78" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="24"/>
+    </row>
+    <row r="79" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="75" t="s">
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="F79" s="62"/>
-      <c r="G79" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H79" s="28"/>
-    </row>
-    <row r="80" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="24" t="s">
+      <c r="F79" s="58"/>
+      <c r="G79" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="24"/>
+    </row>
+    <row r="80" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="75" t="s">
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="67" t="s">
         <v>436</v>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="28"/>
-    </row>
-    <row r="81" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24" t="s">
+      <c r="F80" s="58"/>
+      <c r="G80" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="24"/>
+    </row>
+    <row r="81" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="75" t="s">
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="F81" s="63"/>
-      <c r="G81" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H81" s="28"/>
-    </row>
-    <row r="82" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="24" t="s">
+      <c r="F81" s="59"/>
+      <c r="G81" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="24"/>
+    </row>
+    <row r="82" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="76" t="s">
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="E82" s="75" t="s">
+      <c r="E82" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="F82" s="61"/>
-      <c r="G82" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="28"/>
-    </row>
-    <row r="83" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
+      <c r="F82" s="57"/>
+      <c r="G82" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="24"/>
+    </row>
+    <row r="83" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="75" t="s">
+      <c r="B83" s="54"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H83" s="28"/>
-    </row>
-    <row r="84" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24" t="s">
+      <c r="F83" s="58"/>
+      <c r="G83" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="24"/>
+    </row>
+    <row r="84" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="75" t="s">
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="67" t="s">
         <v>431</v>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H84" s="28"/>
-    </row>
-    <row r="85" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24" t="s">
+      <c r="F84" s="58"/>
+      <c r="G84" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="24"/>
+    </row>
+    <row r="85" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="76"/>
-      <c r="E85" s="75" t="s">
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="F85" s="62"/>
-      <c r="G85" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="28"/>
-    </row>
-    <row r="86" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24" t="s">
+      <c r="F85" s="58"/>
+      <c r="G85" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="24"/>
+    </row>
+    <row r="86" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="76"/>
-      <c r="E86" s="75" t="s">
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H86" s="28"/>
-    </row>
-    <row r="87" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24" t="s">
+      <c r="F86" s="58"/>
+      <c r="G86" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="24"/>
+    </row>
+    <row r="87" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="75" t="s">
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="67" t="s">
         <v>428</v>
       </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="28"/>
-    </row>
-    <row r="88" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="24" t="s">
+      <c r="F87" s="58"/>
+      <c r="G87" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="24"/>
+    </row>
+    <row r="88" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="75" t="s">
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H88" s="28"/>
-    </row>
-    <row r="89" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="24" t="s">
+      <c r="F88" s="58"/>
+      <c r="G88" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="24"/>
+    </row>
+    <row r="89" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="75" t="s">
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="F89" s="62"/>
-      <c r="G89" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="28"/>
-    </row>
-    <row r="90" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="24" t="s">
+      <c r="F89" s="58"/>
+      <c r="G89" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="24"/>
+    </row>
+    <row r="90" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="75" t="s">
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="67" t="s">
         <v>435</v>
       </c>
-      <c r="F90" s="62"/>
-      <c r="G90" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="28"/>
-    </row>
-    <row r="91" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+      <c r="F90" s="58"/>
+      <c r="G90" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="24"/>
+    </row>
+    <row r="91" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="75" t="s">
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="67" t="s">
         <v>437</v>
       </c>
-      <c r="F91" s="62"/>
-      <c r="G91" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H91" s="28"/>
-    </row>
-    <row r="92" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24" t="s">
+      <c r="F91" s="58"/>
+      <c r="G91" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H91" s="24"/>
+    </row>
+    <row r="92" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="76"/>
-      <c r="E92" s="75" t="s">
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="67" t="s">
         <v>430</v>
       </c>
-      <c r="F92" s="63"/>
-      <c r="G92" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" s="28"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H92" s="24"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="64"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-    </row>
-    <row r="94" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="31" t="s">
+      <c r="A93" s="49"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49"/>
+    </row>
+    <row r="94" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="26"/>
+      <c r="B94" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="28"/>
-    </row>
-    <row r="95" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="28"/>
-    </row>
-    <row r="96" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="28"/>
-    </row>
-    <row r="97" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="75"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="28"/>
-    </row>
-    <row r="98" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="28"/>
-    </row>
-    <row r="99" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="28"/>
-    </row>
-    <row r="100" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="28"/>
-    </row>
-    <row r="101" spans="1:8" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="23"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="28"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="64"/>
-      <c r="B102" s="64"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="28" t="s">
+      <c r="C94" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E94" s="67"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="24"/>
+    </row>
+    <row r="95" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="26"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="24"/>
+    </row>
+    <row r="96" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="26"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="24"/>
+    </row>
+    <row r="97" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="26"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="24"/>
+    </row>
+    <row r="98" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="24"/>
+    </row>
+    <row r="99" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="54"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="24"/>
+    </row>
+    <row r="100" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="26"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="24"/>
+    </row>
+    <row r="101" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="26"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="24"/>
+    </row>
+    <row r="102" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="26"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="26"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="24"/>
+    </row>
+    <row r="104" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="26"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="24"/>
+    </row>
+    <row r="105" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="26"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="24"/>
+    </row>
+    <row r="106" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="26"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="24"/>
+    </row>
+    <row r="107" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="26"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="24"/>
+    </row>
+    <row r="108" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="26"/>
+      <c r="B108" s="54"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="24"/>
+    </row>
+    <row r="109" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="26"/>
+      <c r="B109" s="54"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="24"/>
+    </row>
+    <row r="110" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="26"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="24"/>
+    </row>
+    <row r="111" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="26"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="24"/>
+    </row>
+    <row r="112" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="26"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="24"/>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="26"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="24"/>
+    </row>
+    <row r="114" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="26"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="24"/>
+    </row>
+    <row r="115" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="26"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="24"/>
+    </row>
+    <row r="116" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="26"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="24"/>
+    </row>
+    <row r="117" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="26"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="24"/>
+    </row>
+    <row r="118" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="26"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="24"/>
+    </row>
+    <row r="119" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="26"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="24"/>
+    </row>
+    <row r="120" spans="1:8" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="26"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="24"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="49"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="24" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E106" s="28"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E107" s="28"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E108" s="28"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E109" s="28"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E110" s="28"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E111" s="28"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E112" s="28"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" s="28"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="28"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" s="28"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="28"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" s="28"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" s="28"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E119" s="28"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E120" s="28"/>
-    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D29:D46"/>
-    <mergeCell ref="C29:C46"/>
-    <mergeCell ref="C47:C61"/>
-    <mergeCell ref="D47:D61"/>
-    <mergeCell ref="F46:F61"/>
-    <mergeCell ref="D62:D69"/>
-    <mergeCell ref="D70:D81"/>
-    <mergeCell ref="D82:D92"/>
-    <mergeCell ref="C62:C92"/>
-    <mergeCell ref="B8:B92"/>
+  <mergeCells count="28">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:C5"/>
@@ -7338,6 +7455,20 @@
     <mergeCell ref="D13:D28"/>
     <mergeCell ref="C13:C28"/>
     <mergeCell ref="F13:F28"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D29:D46"/>
+    <mergeCell ref="C29:C46"/>
+    <mergeCell ref="C47:C61"/>
+    <mergeCell ref="D47:D61"/>
+    <mergeCell ref="F46:F61"/>
+    <mergeCell ref="D62:D69"/>
+    <mergeCell ref="D70:D81"/>
+    <mergeCell ref="D82:D92"/>
+    <mergeCell ref="C62:C92"/>
+    <mergeCell ref="B8:B92"/>
+    <mergeCell ref="B94:B120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7362,184 +7493,184 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="67"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="4">
